--- a/sklep_3.xlsx
+++ b/sklep_3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl-my.sharepoint.com/personal/nalepkap_student_agh_edu_pl/Documents/Sem5/SVD/SWD_Kerfus-master/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\piter\Desktop\DOBRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{5D6D5B3D-6526-4D50-A7CF-7854697B512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA3DA1DB-09AF-4550-80DD-E4D98C3EA80C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E4A5F5F-759A-42FA-AA30-2681FF3D280C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{983B0401-862A-4A11-94D6-A974676171F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{983B0401-862A-4A11-94D6-A974676171F9}"/>
   </bookViews>
   <sheets>
     <sheet name="mapa" sheetId="1" r:id="rId1"/>
@@ -368,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -418,10 +418,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -798,190 +797,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC73091E-0747-4333-9BE2-227938726090}">
   <dimension ref="A1:BJ48"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="60" max="60" width="38.28515625" customWidth="1"/>
-    <col min="61" max="61" width="7.28515625" customWidth="1"/>
-    <col min="62" max="62" width="45.28515625" customWidth="1"/>
+    <col min="60" max="60" width="38.33203125" customWidth="1"/>
+    <col min="61" max="61" width="7.33203125" customWidth="1"/>
+    <col min="62" max="62" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:62" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B1" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="2">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="2">
         <v>9</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="1">
         <v>10</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="2">
         <v>11</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="1">
         <v>12</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="2">
         <v>13</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="1">
         <v>14</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="2">
         <v>15</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="1">
         <v>16</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="2">
         <v>17</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="2">
         <v>19</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="2">
         <v>21</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="1">
         <v>22</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="2">
         <v>23</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="1">
         <v>24</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="2">
         <v>25</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="1">
         <v>26</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="2">
         <v>27</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="1">
         <v>28</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="2">
         <v>29</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="1">
         <v>30</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="2">
         <v>31</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="1">
         <v>32</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="2">
         <v>33</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="1">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AK1" s="2">
         <v>35</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="1">
         <v>36</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AM1" s="2">
         <v>37</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="1">
         <v>38</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AO1" s="2">
         <v>39</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AP1" s="1">
         <v>40</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AQ1" s="2">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AR1" s="1">
         <v>42</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AS1" s="2">
         <v>43</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AT1" s="1">
         <v>44</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AU1" s="2">
         <v>45</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AV1" s="1">
         <v>46</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AW1" s="2">
         <v>47</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AX1" s="1">
         <v>48</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AY1" s="2">
         <v>49</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="AZ1" s="1">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="BA1" s="2">
         <v>51</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BB1" s="1">
         <v>52</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BC1" s="2">
         <v>53</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BD1" s="1">
         <v>54</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BE1" s="2">
         <v>55</v>
       </c>
-      <c r="BE1" s="2">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A2" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="17">
         <v>1</v>
@@ -1152,9 +1149,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="20">
         <v>1</v>
@@ -1325,883 +1322,883 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0</v>
+      </c>
+      <c r="E4" s="21">
+        <v>0</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="21">
+        <v>0</v>
+      </c>
+      <c r="H4" s="21">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21">
+        <v>0</v>
+      </c>
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0</v>
+      </c>
+      <c r="O4" s="21">
+        <v>0</v>
+      </c>
+      <c r="P4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>0</v>
+      </c>
+      <c r="R4" s="21">
+        <v>0</v>
+      </c>
+      <c r="S4" s="21">
+        <v>0</v>
+      </c>
+      <c r="T4" s="21">
+        <v>0</v>
+      </c>
+      <c r="U4" s="21">
+        <v>0</v>
+      </c>
+      <c r="V4" s="21">
+        <v>0</v>
+      </c>
+      <c r="W4" s="21">
+        <v>0</v>
+      </c>
+      <c r="X4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="20">
-        <v>1</v>
-      </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="21">
-        <v>0</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0</v>
-      </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
-        <v>0</v>
-      </c>
-      <c r="I4" s="21">
-        <v>0</v>
-      </c>
-      <c r="J4" s="21">
-        <v>0</v>
-      </c>
-      <c r="K4" s="21">
-        <v>0</v>
-      </c>
-      <c r="L4" s="21">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
-        <v>0</v>
-      </c>
-      <c r="N4" s="21">
-        <v>0</v>
-      </c>
-      <c r="O4" s="21">
-        <v>0</v>
-      </c>
-      <c r="P4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="21">
-        <v>0</v>
-      </c>
-      <c r="R4" s="21">
-        <v>0</v>
-      </c>
-      <c r="S4" s="21">
-        <v>0</v>
-      </c>
-      <c r="T4" s="21">
-        <v>0</v>
-      </c>
-      <c r="U4" s="21">
-        <v>0</v>
-      </c>
-      <c r="V4" s="21">
-        <v>0</v>
-      </c>
-      <c r="W4" s="21">
-        <v>0</v>
-      </c>
-      <c r="X4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="3">
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21">
+        <v>1</v>
+      </c>
+      <c r="E5" s="21">
+        <v>1</v>
+      </c>
+      <c r="F5" s="21">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1</v>
+      </c>
+      <c r="H5" s="21">
+        <v>1</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0</v>
+      </c>
+      <c r="O5" s="21">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21">
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21">
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
+        <v>0</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0</v>
+      </c>
+      <c r="X5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA5" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="20">
-        <v>1</v>
-      </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21">
-        <v>1</v>
-      </c>
-      <c r="E5" s="21">
-        <v>1</v>
-      </c>
-      <c r="F5" s="21">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21">
-        <v>1</v>
-      </c>
-      <c r="I5" s="21">
-        <v>1</v>
-      </c>
-      <c r="J5" s="21">
-        <v>0</v>
-      </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="21">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
-        <v>0</v>
-      </c>
-      <c r="N5" s="21">
-        <v>0</v>
-      </c>
-      <c r="O5" s="21">
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>0</v>
-      </c>
-      <c r="R5" s="21">
-        <v>0</v>
-      </c>
-      <c r="S5" s="21">
-        <v>0</v>
-      </c>
-      <c r="T5" s="21">
-        <v>0</v>
-      </c>
-      <c r="U5" s="21">
-        <v>0</v>
-      </c>
-      <c r="V5" s="21">
-        <v>0</v>
-      </c>
-      <c r="W5" s="21">
-        <v>0</v>
-      </c>
-      <c r="X5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA5" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="3">
+      <c r="B6" s="20">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0</v>
+      </c>
+      <c r="I6" s="21">
+        <v>0</v>
+      </c>
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0</v>
+      </c>
+      <c r="O6" s="21">
+        <v>0</v>
+      </c>
+      <c r="P6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>0</v>
+      </c>
+      <c r="R6" s="21">
+        <v>0</v>
+      </c>
+      <c r="S6" s="21">
+        <v>0</v>
+      </c>
+      <c r="T6" s="21">
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <v>0</v>
+      </c>
+      <c r="V6" s="21">
+        <v>0</v>
+      </c>
+      <c r="W6" s="21">
+        <v>0</v>
+      </c>
+      <c r="X6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62" ht="47.4" x14ac:dyDescent="0.9">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="20">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="21">
-        <v>0</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <v>0</v>
-      </c>
-      <c r="I6" s="21">
-        <v>0</v>
-      </c>
-      <c r="J6" s="21">
-        <v>0</v>
-      </c>
-      <c r="K6" s="21">
-        <v>0</v>
-      </c>
-      <c r="L6" s="21">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <v>0</v>
-      </c>
-      <c r="N6" s="21">
-        <v>0</v>
-      </c>
-      <c r="O6" s="21">
-        <v>0</v>
-      </c>
-      <c r="P6" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>0</v>
-      </c>
-      <c r="R6" s="21">
-        <v>0</v>
-      </c>
-      <c r="S6" s="21">
-        <v>0</v>
-      </c>
-      <c r="T6" s="21">
-        <v>0</v>
-      </c>
-      <c r="U6" s="21">
-        <v>0</v>
-      </c>
-      <c r="V6" s="21">
-        <v>0</v>
-      </c>
-      <c r="W6" s="21">
-        <v>0</v>
-      </c>
-      <c r="X6" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:62" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="A7" s="3">
+      <c r="B7" s="20">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0</v>
+      </c>
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0</v>
+      </c>
+      <c r="O7" s="21">
+        <v>1</v>
+      </c>
+      <c r="P7" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21">
+        <v>0</v>
+      </c>
+      <c r="S7" s="21">
+        <v>0</v>
+      </c>
+      <c r="T7" s="21">
+        <v>1</v>
+      </c>
+      <c r="U7" s="21">
+        <v>0</v>
+      </c>
+      <c r="V7" s="21">
+        <v>0</v>
+      </c>
+      <c r="W7" s="21">
+        <v>0</v>
+      </c>
+      <c r="X7" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB7" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI7" s="16" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="20">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="21">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
-        <v>0</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0</v>
-      </c>
-      <c r="J7" s="21">
-        <v>0</v>
-      </c>
-      <c r="K7" s="21">
-        <v>0</v>
-      </c>
-      <c r="L7" s="21">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <v>0</v>
-      </c>
-      <c r="N7" s="21">
-        <v>0</v>
-      </c>
-      <c r="O7" s="21">
-        <v>1</v>
-      </c>
-      <c r="P7" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>0</v>
-      </c>
-      <c r="R7" s="21">
-        <v>0</v>
-      </c>
-      <c r="S7" s="21">
-        <v>0</v>
-      </c>
-      <c r="T7" s="21">
-        <v>1</v>
-      </c>
-      <c r="U7" s="21">
-        <v>0</v>
-      </c>
-      <c r="V7" s="21">
-        <v>0</v>
-      </c>
-      <c r="W7" s="21">
-        <v>0</v>
-      </c>
-      <c r="X7" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA7" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB7" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE7" s="22">
-        <v>1</v>
-      </c>
-      <c r="BI7" s="16" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="3">
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="21">
+        <v>0</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+      <c r="I8" s="21">
+        <v>0</v>
+      </c>
+      <c r="J8" s="21">
+        <v>0</v>
+      </c>
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21">
+        <v>0</v>
+      </c>
+      <c r="P8" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>0</v>
+      </c>
+      <c r="R8" s="21">
+        <v>0</v>
+      </c>
+      <c r="S8" s="21">
+        <v>0</v>
+      </c>
+      <c r="T8" s="21">
+        <v>0</v>
+      </c>
+      <c r="U8" s="21">
+        <v>0</v>
+      </c>
+      <c r="V8" s="21">
+        <v>0</v>
+      </c>
+      <c r="W8" s="21">
+        <v>0</v>
+      </c>
+      <c r="X8" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB8" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD8" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="22">
+        <v>1</v>
+      </c>
+      <c r="BI8" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A9" s="3">
         <v>7</v>
-      </c>
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="21">
-        <v>0</v>
-      </c>
-      <c r="D8" s="21">
-        <v>0</v>
-      </c>
-      <c r="E8" s="21">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
-        <v>0</v>
-      </c>
-      <c r="I8" s="21">
-        <v>0</v>
-      </c>
-      <c r="J8" s="21">
-        <v>0</v>
-      </c>
-      <c r="K8" s="21">
-        <v>0</v>
-      </c>
-      <c r="L8" s="21">
-        <v>0</v>
-      </c>
-      <c r="M8" s="21">
-        <v>0</v>
-      </c>
-      <c r="N8" s="21">
-        <v>0</v>
-      </c>
-      <c r="O8" s="21">
-        <v>0</v>
-      </c>
-      <c r="P8" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="21">
-        <v>0</v>
-      </c>
-      <c r="R8" s="21">
-        <v>0</v>
-      </c>
-      <c r="S8" s="21">
-        <v>0</v>
-      </c>
-      <c r="T8" s="21">
-        <v>0</v>
-      </c>
-      <c r="U8" s="21">
-        <v>0</v>
-      </c>
-      <c r="V8" s="21">
-        <v>0</v>
-      </c>
-      <c r="W8" s="21">
-        <v>0</v>
-      </c>
-      <c r="X8" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="21">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="22">
-        <v>1</v>
-      </c>
-      <c r="BI8" s="3">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="3">
-        <v>8</v>
       </c>
       <c r="B9" s="20">
         <v>1</v>
@@ -2378,9 +2375,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="20">
         <v>1</v>
@@ -2557,9 +2554,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="20">
         <v>1</v>
@@ -2736,9 +2733,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="20">
         <v>3</v>
@@ -2915,9 +2912,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="20">
         <v>3</v>
@@ -3094,9 +3091,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A14" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="20">
         <v>3</v>
@@ -3273,9 +3270,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A15" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="20">
         <v>3</v>
@@ -3446,9 +3443,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:62" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A16" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="20">
         <v>3</v>
@@ -3619,9 +3616,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="20">
         <v>3</v>
@@ -3792,9 +3789,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="20">
         <v>3</v>
@@ -3965,1912 +3962,1912 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
       <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="20">
+        <v>1</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+      <c r="I19" s="21">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
+      <c r="O19" s="21">
+        <v>0</v>
+      </c>
+      <c r="P19" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>0</v>
+      </c>
+      <c r="R19" s="21">
+        <v>0</v>
+      </c>
+      <c r="S19" s="21">
+        <v>0</v>
+      </c>
+      <c r="T19" s="21">
+        <v>0</v>
+      </c>
+      <c r="U19" s="21">
+        <v>0</v>
+      </c>
+      <c r="V19" s="21">
+        <v>0</v>
+      </c>
+      <c r="W19" s="21">
+        <v>0</v>
+      </c>
+      <c r="X19" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="21">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD19" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="20">
-        <v>1</v>
-      </c>
-      <c r="C19" s="21">
-        <v>0</v>
-      </c>
-      <c r="D19" s="21">
-        <v>0</v>
-      </c>
-      <c r="E19" s="21">
-        <v>0</v>
-      </c>
-      <c r="F19" s="21">
-        <v>0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
-        <v>0</v>
-      </c>
-      <c r="I19" s="21">
-        <v>0</v>
-      </c>
-      <c r="J19" s="21">
-        <v>0</v>
-      </c>
-      <c r="K19" s="21">
-        <v>0</v>
-      </c>
-      <c r="L19" s="21">
-        <v>0</v>
-      </c>
-      <c r="M19" s="21">
-        <v>0</v>
-      </c>
-      <c r="N19" s="21">
-        <v>0</v>
-      </c>
-      <c r="O19" s="21">
-        <v>0</v>
-      </c>
-      <c r="P19" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="21">
-        <v>0</v>
-      </c>
-      <c r="R19" s="21">
-        <v>0</v>
-      </c>
-      <c r="S19" s="21">
-        <v>0</v>
-      </c>
-      <c r="T19" s="21">
-        <v>0</v>
-      </c>
-      <c r="U19" s="21">
-        <v>0</v>
-      </c>
-      <c r="V19" s="21">
-        <v>0</v>
-      </c>
-      <c r="W19" s="21">
-        <v>0</v>
-      </c>
-      <c r="X19" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU19" s="21">
-        <v>1</v>
-      </c>
-      <c r="AV19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="21">
-        <v>0</v>
-      </c>
-      <c r="BA19" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3">
+      <c r="B20" s="20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0</v>
+      </c>
+      <c r="G20" s="21">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <v>0</v>
+      </c>
+      <c r="I20" s="21">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="21">
+        <v>0</v>
+      </c>
+      <c r="O20" s="21">
+        <v>0</v>
+      </c>
+      <c r="P20" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="21">
+        <v>0</v>
+      </c>
+      <c r="R20" s="21">
+        <v>0</v>
+      </c>
+      <c r="S20" s="21">
+        <v>0</v>
+      </c>
+      <c r="T20" s="21">
+        <v>0</v>
+      </c>
+      <c r="U20" s="21">
+        <v>0</v>
+      </c>
+      <c r="V20" s="21">
+        <v>0</v>
+      </c>
+      <c r="W20" s="21">
+        <v>0</v>
+      </c>
+      <c r="X20" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA20" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD20" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="21">
-        <v>0</v>
-      </c>
-      <c r="D20" s="21">
-        <v>0</v>
-      </c>
-      <c r="E20" s="21">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21">
-        <v>0</v>
-      </c>
-      <c r="I20" s="21">
-        <v>0</v>
-      </c>
-      <c r="J20" s="21">
-        <v>0</v>
-      </c>
-      <c r="K20" s="21">
-        <v>0</v>
-      </c>
-      <c r="L20" s="21">
-        <v>0</v>
-      </c>
-      <c r="M20" s="21">
-        <v>0</v>
-      </c>
-      <c r="N20" s="21">
-        <v>0</v>
-      </c>
-      <c r="O20" s="21">
-        <v>0</v>
-      </c>
-      <c r="P20" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="21">
-        <v>0</v>
-      </c>
-      <c r="R20" s="21">
-        <v>0</v>
-      </c>
-      <c r="S20" s="21">
-        <v>0</v>
-      </c>
-      <c r="T20" s="21">
-        <v>0</v>
-      </c>
-      <c r="U20" s="21">
-        <v>0</v>
-      </c>
-      <c r="V20" s="21">
-        <v>0</v>
-      </c>
-      <c r="W20" s="21">
-        <v>0</v>
-      </c>
-      <c r="X20" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="21">
-        <v>1</v>
-      </c>
-      <c r="AV20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA20" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE20" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="3">
+      <c r="B21" s="20">
+        <v>1</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="21">
+        <v>0</v>
+      </c>
+      <c r="J21" s="21">
+        <v>0</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="21">
+        <v>0</v>
+      </c>
+      <c r="R21" s="21">
+        <v>0</v>
+      </c>
+      <c r="S21" s="21">
+        <v>0</v>
+      </c>
+      <c r="T21" s="21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="21">
+        <v>0</v>
+      </c>
+      <c r="W21" s="21">
+        <v>0</v>
+      </c>
+      <c r="X21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="21">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD21" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="20">
-        <v>1</v>
-      </c>
-      <c r="C21" s="21">
-        <v>0</v>
-      </c>
-      <c r="D21" s="21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="21">
-        <v>0</v>
-      </c>
-      <c r="F21" s="21">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="21">
-        <v>0</v>
-      </c>
-      <c r="J21" s="21">
-        <v>0</v>
-      </c>
-      <c r="K21" s="21">
-        <v>0</v>
-      </c>
-      <c r="L21" s="21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="21">
-        <v>0</v>
-      </c>
-      <c r="N21" s="21">
-        <v>0</v>
-      </c>
-      <c r="O21" s="21">
-        <v>0</v>
-      </c>
-      <c r="P21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="21">
-        <v>0</v>
-      </c>
-      <c r="R21" s="21">
-        <v>0</v>
-      </c>
-      <c r="S21" s="21">
-        <v>0</v>
-      </c>
-      <c r="T21" s="21">
-        <v>0</v>
-      </c>
-      <c r="U21" s="21">
-        <v>0</v>
-      </c>
-      <c r="V21" s="21">
-        <v>0</v>
-      </c>
-      <c r="W21" s="21">
-        <v>0</v>
-      </c>
-      <c r="X21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="21">
-        <v>1</v>
-      </c>
-      <c r="AK21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU21" s="21">
-        <v>1</v>
-      </c>
-      <c r="AV21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA21" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3">
+      <c r="B22" s="20">
+        <v>1</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0</v>
+      </c>
+      <c r="G22" s="21">
+        <v>0</v>
+      </c>
+      <c r="H22" s="21">
+        <v>0</v>
+      </c>
+      <c r="I22" s="21">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="21">
+        <v>1</v>
+      </c>
+      <c r="P22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="21">
+        <v>0</v>
+      </c>
+      <c r="R22" s="21">
+        <v>0</v>
+      </c>
+      <c r="S22" s="21">
+        <v>0</v>
+      </c>
+      <c r="T22" s="21">
+        <v>1</v>
+      </c>
+      <c r="U22" s="21">
+        <v>0</v>
+      </c>
+      <c r="V22" s="21">
+        <v>0</v>
+      </c>
+      <c r="W22" s="21">
+        <v>0</v>
+      </c>
+      <c r="X22" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD22" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="20">
-        <v>1</v>
-      </c>
-      <c r="C22" s="21">
-        <v>0</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0</v>
-      </c>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="21">
-        <v>0</v>
-      </c>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
-        <v>0</v>
-      </c>
-      <c r="I22" s="21">
-        <v>0</v>
-      </c>
-      <c r="J22" s="21">
-        <v>0</v>
-      </c>
-      <c r="K22" s="21">
-        <v>0</v>
-      </c>
-      <c r="L22" s="21">
-        <v>0</v>
-      </c>
-      <c r="M22" s="21">
-        <v>0</v>
-      </c>
-      <c r="N22" s="21">
-        <v>0</v>
-      </c>
-      <c r="O22" s="21">
-        <v>1</v>
-      </c>
-      <c r="P22" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="21">
-        <v>0</v>
-      </c>
-      <c r="R22" s="21">
-        <v>0</v>
-      </c>
-      <c r="S22" s="21">
-        <v>0</v>
-      </c>
-      <c r="T22" s="21">
-        <v>1</v>
-      </c>
-      <c r="U22" s="21">
-        <v>0</v>
-      </c>
-      <c r="V22" s="21">
-        <v>0</v>
-      </c>
-      <c r="W22" s="21">
-        <v>0</v>
-      </c>
-      <c r="X22" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA22" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3">
+      <c r="B23" s="20">
+        <v>1</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0</v>
+      </c>
+      <c r="D23" s="21">
+        <v>1</v>
+      </c>
+      <c r="E23" s="21">
+        <v>1</v>
+      </c>
+      <c r="F23" s="21">
+        <v>1</v>
+      </c>
+      <c r="G23" s="21">
+        <v>1</v>
+      </c>
+      <c r="H23" s="21">
+        <v>1</v>
+      </c>
+      <c r="I23" s="21">
+        <v>1</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="21">
+        <v>0</v>
+      </c>
+      <c r="P23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="21">
+        <v>0</v>
+      </c>
+      <c r="R23" s="21">
+        <v>0</v>
+      </c>
+      <c r="S23" s="21">
+        <v>0</v>
+      </c>
+      <c r="T23" s="21">
+        <v>0</v>
+      </c>
+      <c r="U23" s="21">
+        <v>0</v>
+      </c>
+      <c r="V23" s="21">
+        <v>0</v>
+      </c>
+      <c r="W23" s="21">
+        <v>0</v>
+      </c>
+      <c r="X23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD23" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="20">
-        <v>1</v>
-      </c>
-      <c r="C23" s="21">
-        <v>0</v>
-      </c>
-      <c r="D23" s="21">
-        <v>1</v>
-      </c>
-      <c r="E23" s="21">
-        <v>1</v>
-      </c>
-      <c r="F23" s="21">
-        <v>1</v>
-      </c>
-      <c r="G23" s="21">
-        <v>1</v>
-      </c>
-      <c r="H23" s="21">
-        <v>1</v>
-      </c>
-      <c r="I23" s="21">
-        <v>1</v>
-      </c>
-      <c r="J23" s="21">
-        <v>0</v>
-      </c>
-      <c r="K23" s="21">
-        <v>0</v>
-      </c>
-      <c r="L23" s="21">
-        <v>0</v>
-      </c>
-      <c r="M23" s="21">
-        <v>0</v>
-      </c>
-      <c r="N23" s="21">
-        <v>0</v>
-      </c>
-      <c r="O23" s="21">
-        <v>0</v>
-      </c>
-      <c r="P23" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="21">
-        <v>0</v>
-      </c>
-      <c r="R23" s="21">
-        <v>0</v>
-      </c>
-      <c r="S23" s="21">
-        <v>0</v>
-      </c>
-      <c r="T23" s="21">
-        <v>0</v>
-      </c>
-      <c r="U23" s="21">
-        <v>0</v>
-      </c>
-      <c r="V23" s="21">
-        <v>0</v>
-      </c>
-      <c r="W23" s="21">
-        <v>0</v>
-      </c>
-      <c r="X23" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA23" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE23" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3">
+      <c r="B24" s="20">
+        <v>1</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>0</v>
+      </c>
+      <c r="G24" s="21">
+        <v>0</v>
+      </c>
+      <c r="H24" s="21">
+        <v>0</v>
+      </c>
+      <c r="I24" s="21">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
+        <v>0</v>
+      </c>
+      <c r="O24" s="21">
+        <v>0</v>
+      </c>
+      <c r="P24" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="21">
+        <v>0</v>
+      </c>
+      <c r="R24" s="21">
+        <v>0</v>
+      </c>
+      <c r="S24" s="21">
+        <v>0</v>
+      </c>
+      <c r="T24" s="21">
+        <v>0</v>
+      </c>
+      <c r="U24" s="21">
+        <v>0</v>
+      </c>
+      <c r="V24" s="21">
+        <v>0</v>
+      </c>
+      <c r="W24" s="21">
+        <v>0</v>
+      </c>
+      <c r="X24" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB24" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC24" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD24" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="20">
-        <v>1</v>
-      </c>
-      <c r="C24" s="21">
-        <v>0</v>
-      </c>
-      <c r="D24" s="21">
-        <v>0</v>
-      </c>
-      <c r="E24" s="21">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
-        <v>0</v>
-      </c>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
-        <v>0</v>
-      </c>
-      <c r="I24" s="21">
-        <v>0</v>
-      </c>
-      <c r="J24" s="21">
-        <v>0</v>
-      </c>
-      <c r="K24" s="21">
-        <v>0</v>
-      </c>
-      <c r="L24" s="21">
-        <v>0</v>
-      </c>
-      <c r="M24" s="21">
-        <v>0</v>
-      </c>
-      <c r="N24" s="21">
-        <v>0</v>
-      </c>
-      <c r="O24" s="21">
-        <v>0</v>
-      </c>
-      <c r="P24" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="21">
-        <v>0</v>
-      </c>
-      <c r="R24" s="21">
-        <v>0</v>
-      </c>
-      <c r="S24" s="21">
-        <v>0</v>
-      </c>
-      <c r="T24" s="21">
-        <v>0</v>
-      </c>
-      <c r="U24" s="21">
-        <v>0</v>
-      </c>
-      <c r="V24" s="21">
-        <v>0</v>
-      </c>
-      <c r="W24" s="21">
-        <v>0</v>
-      </c>
-      <c r="X24" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA24" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="3">
+      <c r="B25" s="20">
+        <v>1</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>0</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21">
+        <v>0</v>
+      </c>
+      <c r="O25" s="21">
+        <v>1</v>
+      </c>
+      <c r="P25" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>0</v>
+      </c>
+      <c r="R25" s="21">
+        <v>0</v>
+      </c>
+      <c r="S25" s="21">
+        <v>0</v>
+      </c>
+      <c r="T25" s="21">
+        <v>1</v>
+      </c>
+      <c r="U25" s="21">
+        <v>0</v>
+      </c>
+      <c r="V25" s="21">
+        <v>0</v>
+      </c>
+      <c r="W25" s="21">
+        <v>0</v>
+      </c>
+      <c r="X25" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="21">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA25" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB25" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC25" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD25" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="20">
-        <v>1</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
-        <v>0</v>
-      </c>
-      <c r="I25" s="21">
-        <v>0</v>
-      </c>
-      <c r="J25" s="21">
-        <v>0</v>
-      </c>
-      <c r="K25" s="21">
-        <v>0</v>
-      </c>
-      <c r="L25" s="21">
-        <v>0</v>
-      </c>
-      <c r="M25" s="21">
-        <v>0</v>
-      </c>
-      <c r="N25" s="21">
-        <v>0</v>
-      </c>
-      <c r="O25" s="21">
-        <v>1</v>
-      </c>
-      <c r="P25" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="21">
-        <v>0</v>
-      </c>
-      <c r="R25" s="21">
-        <v>0</v>
-      </c>
-      <c r="S25" s="21">
-        <v>0</v>
-      </c>
-      <c r="T25" s="21">
-        <v>1</v>
-      </c>
-      <c r="U25" s="21">
-        <v>0</v>
-      </c>
-      <c r="V25" s="21">
-        <v>0</v>
-      </c>
-      <c r="W25" s="21">
-        <v>0</v>
-      </c>
-      <c r="X25" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="21">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA25" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="3">
+      <c r="B26" s="20">
+        <v>1</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="21">
+        <v>0</v>
+      </c>
+      <c r="G26" s="21">
+        <v>0</v>
+      </c>
+      <c r="H26" s="21">
+        <v>0</v>
+      </c>
+      <c r="I26" s="21">
+        <v>0</v>
+      </c>
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>0</v>
+      </c>
+      <c r="O26" s="21">
+        <v>0</v>
+      </c>
+      <c r="P26" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>0</v>
+      </c>
+      <c r="R26" s="21">
+        <v>0</v>
+      </c>
+      <c r="S26" s="21">
+        <v>0</v>
+      </c>
+      <c r="T26" s="21">
+        <v>0</v>
+      </c>
+      <c r="U26" s="21">
+        <v>0</v>
+      </c>
+      <c r="V26" s="21">
+        <v>0</v>
+      </c>
+      <c r="W26" s="21">
+        <v>0</v>
+      </c>
+      <c r="X26" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP26" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="20">
-        <v>1</v>
-      </c>
-      <c r="C26" s="21">
-        <v>0</v>
-      </c>
-      <c r="D26" s="21">
-        <v>0</v>
-      </c>
-      <c r="E26" s="21">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
-        <v>0</v>
-      </c>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
-        <v>0</v>
-      </c>
-      <c r="I26" s="21">
-        <v>0</v>
-      </c>
-      <c r="J26" s="21">
-        <v>0</v>
-      </c>
-      <c r="K26" s="21">
-        <v>0</v>
-      </c>
-      <c r="L26" s="21">
-        <v>0</v>
-      </c>
-      <c r="M26" s="21">
-        <v>0</v>
-      </c>
-      <c r="N26" s="21">
-        <v>0</v>
-      </c>
-      <c r="O26" s="21">
-        <v>0</v>
-      </c>
-      <c r="P26" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="21">
-        <v>0</v>
-      </c>
-      <c r="R26" s="21">
-        <v>0</v>
-      </c>
-      <c r="S26" s="21">
-        <v>0</v>
-      </c>
-      <c r="T26" s="21">
-        <v>0</v>
-      </c>
-      <c r="U26" s="21">
-        <v>0</v>
-      </c>
-      <c r="V26" s="21">
-        <v>0</v>
-      </c>
-      <c r="W26" s="21">
-        <v>0</v>
-      </c>
-      <c r="X26" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG26" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA26" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3">
+      <c r="B27" s="20">
+        <v>1</v>
+      </c>
+      <c r="C27" s="21">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="21">
+        <v>1</v>
+      </c>
+      <c r="F27" s="21">
+        <v>1</v>
+      </c>
+      <c r="G27" s="21">
+        <v>1</v>
+      </c>
+      <c r="H27" s="21">
+        <v>1</v>
+      </c>
+      <c r="I27" s="21">
+        <v>1</v>
+      </c>
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21">
+        <v>0</v>
+      </c>
+      <c r="O27" s="21">
+        <v>0</v>
+      </c>
+      <c r="P27" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>0</v>
+      </c>
+      <c r="R27" s="21">
+        <v>0</v>
+      </c>
+      <c r="S27" s="21">
+        <v>0</v>
+      </c>
+      <c r="T27" s="21">
+        <v>0</v>
+      </c>
+      <c r="U27" s="21">
+        <v>0</v>
+      </c>
+      <c r="V27" s="21">
+        <v>0</v>
+      </c>
+      <c r="W27" s="21">
+        <v>0</v>
+      </c>
+      <c r="X27" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA27" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC27" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD27" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="20">
-        <v>1</v>
-      </c>
-      <c r="C27" s="21">
-        <v>0</v>
-      </c>
-      <c r="D27" s="21">
-        <v>1</v>
-      </c>
-      <c r="E27" s="21">
-        <v>1</v>
-      </c>
-      <c r="F27" s="21">
-        <v>1</v>
-      </c>
-      <c r="G27" s="21">
-        <v>1</v>
-      </c>
-      <c r="H27" s="21">
-        <v>1</v>
-      </c>
-      <c r="I27" s="21">
-        <v>1</v>
-      </c>
-      <c r="J27" s="21">
-        <v>0</v>
-      </c>
-      <c r="K27" s="21">
-        <v>0</v>
-      </c>
-      <c r="L27" s="21">
-        <v>0</v>
-      </c>
-      <c r="M27" s="21">
-        <v>0</v>
-      </c>
-      <c r="N27" s="21">
-        <v>0</v>
-      </c>
-      <c r="O27" s="21">
-        <v>0</v>
-      </c>
-      <c r="P27" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="21">
-        <v>0</v>
-      </c>
-      <c r="R27" s="21">
-        <v>0</v>
-      </c>
-      <c r="S27" s="21">
-        <v>0</v>
-      </c>
-      <c r="T27" s="21">
-        <v>0</v>
-      </c>
-      <c r="U27" s="21">
-        <v>0</v>
-      </c>
-      <c r="V27" s="21">
-        <v>0</v>
-      </c>
-      <c r="W27" s="21">
-        <v>0</v>
-      </c>
-      <c r="X27" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA27" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE27" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3">
+      <c r="B28" s="20">
+        <v>1</v>
+      </c>
+      <c r="C28" s="21">
+        <v>0</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="F28" s="21">
+        <v>0</v>
+      </c>
+      <c r="G28" s="21">
+        <v>0</v>
+      </c>
+      <c r="H28" s="21">
+        <v>0</v>
+      </c>
+      <c r="I28" s="21">
+        <v>0</v>
+      </c>
+      <c r="J28" s="21">
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
+        <v>0</v>
+      </c>
+      <c r="P28" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="21">
+        <v>0</v>
+      </c>
+      <c r="R28" s="21">
+        <v>0</v>
+      </c>
+      <c r="S28" s="21">
+        <v>0</v>
+      </c>
+      <c r="T28" s="21">
+        <v>0</v>
+      </c>
+      <c r="U28" s="21">
+        <v>0</v>
+      </c>
+      <c r="V28" s="21">
+        <v>0</v>
+      </c>
+      <c r="W28" s="21">
+        <v>0</v>
+      </c>
+      <c r="X28" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD28" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="20">
-        <v>1</v>
-      </c>
-      <c r="C28" s="21">
-        <v>0</v>
-      </c>
-      <c r="D28" s="21">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21">
-        <v>0</v>
-      </c>
-      <c r="G28" s="21">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21">
-        <v>0</v>
-      </c>
-      <c r="I28" s="21">
-        <v>0</v>
-      </c>
-      <c r="J28" s="21">
-        <v>0</v>
-      </c>
-      <c r="K28" s="21">
-        <v>0</v>
-      </c>
-      <c r="L28" s="21">
-        <v>0</v>
-      </c>
-      <c r="M28" s="21">
-        <v>0</v>
-      </c>
-      <c r="N28" s="21">
-        <v>0</v>
-      </c>
-      <c r="O28" s="21">
-        <v>0</v>
-      </c>
-      <c r="P28" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="21">
-        <v>0</v>
-      </c>
-      <c r="R28" s="21">
-        <v>0</v>
-      </c>
-      <c r="S28" s="21">
-        <v>0</v>
-      </c>
-      <c r="T28" s="21">
-        <v>0</v>
-      </c>
-      <c r="U28" s="21">
-        <v>0</v>
-      </c>
-      <c r="V28" s="21">
-        <v>0</v>
-      </c>
-      <c r="W28" s="21">
-        <v>0</v>
-      </c>
-      <c r="X28" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA28" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD28" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE28" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="3">
+      <c r="B29" s="20">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21">
+        <v>0</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0</v>
+      </c>
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21">
+        <v>0</v>
+      </c>
+      <c r="O29" s="21">
+        <v>0</v>
+      </c>
+      <c r="P29" s="21">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="21">
+        <v>0</v>
+      </c>
+      <c r="R29" s="21">
+        <v>0</v>
+      </c>
+      <c r="S29" s="21">
+        <v>0</v>
+      </c>
+      <c r="T29" s="21">
+        <v>0</v>
+      </c>
+      <c r="U29" s="21">
+        <v>0</v>
+      </c>
+      <c r="V29" s="21">
+        <v>0</v>
+      </c>
+      <c r="W29" s="21">
+        <v>0</v>
+      </c>
+      <c r="X29" s="21">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="21">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="21">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="21">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="21">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="21">
+        <v>1</v>
+      </c>
+      <c r="BA29" s="21">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="21">
+        <v>0</v>
+      </c>
+      <c r="BC29" s="21">
+        <v>0</v>
+      </c>
+      <c r="BD29" s="21">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:57" ht="33.6" x14ac:dyDescent="0.65">
+      <c r="A30" s="3">
         <v>28</v>
-      </c>
-      <c r="B29" s="20">
-        <v>1</v>
-      </c>
-      <c r="C29" s="21">
-        <v>0</v>
-      </c>
-      <c r="D29" s="21">
-        <v>0</v>
-      </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0</v>
-      </c>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
-        <v>0</v>
-      </c>
-      <c r="I29" s="21">
-        <v>0</v>
-      </c>
-      <c r="J29" s="21">
-        <v>0</v>
-      </c>
-      <c r="K29" s="21">
-        <v>0</v>
-      </c>
-      <c r="L29" s="21">
-        <v>0</v>
-      </c>
-      <c r="M29" s="21">
-        <v>0</v>
-      </c>
-      <c r="N29" s="21">
-        <v>0</v>
-      </c>
-      <c r="O29" s="21">
-        <v>0</v>
-      </c>
-      <c r="P29" s="21">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="21">
-        <v>0</v>
-      </c>
-      <c r="R29" s="21">
-        <v>0</v>
-      </c>
-      <c r="S29" s="21">
-        <v>0</v>
-      </c>
-      <c r="T29" s="21">
-        <v>0</v>
-      </c>
-      <c r="U29" s="21">
-        <v>0</v>
-      </c>
-      <c r="V29" s="21">
-        <v>0</v>
-      </c>
-      <c r="W29" s="21">
-        <v>0</v>
-      </c>
-      <c r="X29" s="21">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="21">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AF29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="21">
-        <v>1</v>
-      </c>
-      <c r="AH29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AK29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AM29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="21">
-        <v>1</v>
-      </c>
-      <c r="AQ29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AR29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AS29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AT29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AU29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AX29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="21">
-        <v>0</v>
-      </c>
-      <c r="AZ29" s="21">
-        <v>1</v>
-      </c>
-      <c r="BA29" s="21">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="21">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="21">
-        <v>0</v>
-      </c>
-      <c r="BD29" s="21">
-        <v>0</v>
-      </c>
-      <c r="BE29" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:57" ht="34.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3">
-        <v>29</v>
       </c>
       <c r="B30" s="23">
         <v>1</v>
@@ -6041,177 +6038,177 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:57" ht="28.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:57" ht="28.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
         <v>2</v>
       </c>
-      <c r="D31" s="4">
+      <c r="E31" s="5">
         <v>3</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="4">
         <v>4</v>
       </c>
-      <c r="F31" s="4">
+      <c r="G31" s="5">
         <v>5</v>
       </c>
-      <c r="G31" s="5">
+      <c r="H31" s="4">
         <v>6</v>
       </c>
-      <c r="H31" s="4">
+      <c r="I31" s="5">
         <v>7</v>
       </c>
-      <c r="I31" s="5">
+      <c r="J31" s="4">
         <v>8</v>
       </c>
-      <c r="J31" s="4">
+      <c r="K31" s="5">
         <v>9</v>
       </c>
-      <c r="K31" s="5">
+      <c r="L31" s="4">
         <v>10</v>
       </c>
-      <c r="L31" s="4">
+      <c r="M31" s="5">
         <v>11</v>
       </c>
-      <c r="M31" s="5">
+      <c r="N31" s="4">
         <v>12</v>
       </c>
-      <c r="N31" s="4">
+      <c r="O31" s="5">
         <v>13</v>
       </c>
-      <c r="O31" s="5">
+      <c r="P31" s="4">
         <v>14</v>
       </c>
-      <c r="P31" s="4">
+      <c r="Q31" s="5">
         <v>15</v>
       </c>
-      <c r="Q31" s="5">
+      <c r="R31" s="4">
         <v>16</v>
       </c>
-      <c r="R31" s="4">
+      <c r="S31" s="5">
         <v>17</v>
       </c>
-      <c r="S31" s="5">
+      <c r="T31" s="4">
         <v>18</v>
       </c>
-      <c r="T31" s="4">
+      <c r="U31" s="5">
         <v>19</v>
       </c>
-      <c r="U31" s="5">
+      <c r="V31" s="4">
         <v>20</v>
       </c>
-      <c r="V31" s="4">
+      <c r="W31" s="5">
         <v>21</v>
       </c>
-      <c r="W31" s="5">
+      <c r="X31" s="4">
         <v>22</v>
       </c>
-      <c r="X31" s="4">
+      <c r="Y31" s="5">
         <v>23</v>
       </c>
-      <c r="Y31" s="5">
+      <c r="Z31" s="4">
         <v>24</v>
       </c>
-      <c r="Z31" s="4">
+      <c r="AA31" s="5">
         <v>25</v>
       </c>
-      <c r="AA31" s="5">
+      <c r="AB31" s="4">
         <v>26</v>
       </c>
-      <c r="AB31" s="4">
+      <c r="AC31" s="5">
         <v>27</v>
       </c>
-      <c r="AC31" s="5">
+      <c r="AD31" s="4">
         <v>28</v>
       </c>
-      <c r="AD31" s="4">
+      <c r="AE31" s="5">
         <v>29</v>
       </c>
-      <c r="AE31" s="5">
+      <c r="AF31" s="4">
         <v>30</v>
       </c>
-      <c r="AF31" s="4">
+      <c r="AG31" s="5">
         <v>31</v>
       </c>
-      <c r="AG31" s="5">
+      <c r="AH31" s="4">
         <v>32</v>
       </c>
-      <c r="AH31" s="4">
+      <c r="AI31" s="5">
         <v>33</v>
       </c>
-      <c r="AI31" s="5">
+      <c r="AJ31" s="4">
         <v>34</v>
       </c>
-      <c r="AJ31" s="4">
+      <c r="AK31" s="5">
         <v>35</v>
       </c>
-      <c r="AK31" s="5">
+      <c r="AL31" s="4">
         <v>36</v>
       </c>
-      <c r="AL31" s="4">
+      <c r="AM31" s="5">
         <v>37</v>
       </c>
-      <c r="AM31" s="5">
+      <c r="AN31" s="4">
         <v>38</v>
       </c>
-      <c r="AN31" s="4">
+      <c r="AO31" s="5">
         <v>39</v>
       </c>
-      <c r="AO31" s="5">
+      <c r="AP31" s="4">
         <v>40</v>
       </c>
-      <c r="AP31" s="4">
+      <c r="AQ31" s="5">
         <v>41</v>
       </c>
-      <c r="AQ31" s="5">
+      <c r="AR31" s="4">
         <v>42</v>
       </c>
-      <c r="AR31" s="4">
+      <c r="AS31" s="5">
         <v>43</v>
       </c>
-      <c r="AS31" s="5">
+      <c r="AT31" s="4">
         <v>44</v>
       </c>
-      <c r="AT31" s="4">
+      <c r="AU31" s="5">
         <v>45</v>
       </c>
-      <c r="AU31" s="5">
+      <c r="AV31" s="4">
         <v>46</v>
       </c>
-      <c r="AV31" s="4">
+      <c r="AW31" s="5">
         <v>47</v>
       </c>
-      <c r="AW31" s="5">
+      <c r="AX31" s="4">
         <v>48</v>
       </c>
-      <c r="AX31" s="4">
+      <c r="AY31" s="5">
         <v>49</v>
       </c>
-      <c r="AY31" s="5">
+      <c r="AZ31" s="4">
         <v>50</v>
       </c>
-      <c r="AZ31" s="4">
+      <c r="BA31" s="5">
         <v>51</v>
       </c>
-      <c r="BA31" s="5">
+      <c r="BB31" s="4">
         <v>52</v>
       </c>
-      <c r="BB31" s="4">
+      <c r="BC31" s="5">
         <v>53</v>
       </c>
-      <c r="BC31" s="5">
+      <c r="BD31" s="4">
         <v>54</v>
       </c>
-      <c r="BD31" s="4">
+      <c r="BE31" s="5">
         <v>55</v>
       </c>
-      <c r="BE31" s="5">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="26:26" ht="31.5" x14ac:dyDescent="0.5">
+    </row>
+    <row r="48" spans="26:26" ht="31.2" x14ac:dyDescent="0.6">
       <c r="Z48" s="26"/>
     </row>
   </sheetData>
@@ -6243,20 +6240,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1B30CCA-6B6E-4DD0-8945-158CD016E685}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="37.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>8</v>
       </c>
@@ -6282,7 +6277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -6302,7 +6297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -6322,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -6342,7 +6337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -6362,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -6382,7 +6377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -6402,7 +6397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -6422,7 +6417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -6442,7 +6437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -6462,7 +6457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -6482,7 +6477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -6502,7 +6497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -6522,7 +6517,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -6542,7 +6537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -6562,7 +6557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -6582,7 +6577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -6602,7 +6597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -6622,7 +6617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -6642,7 +6637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>19</v>
       </c>
@@ -6662,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>20</v>
       </c>
@@ -6682,172 +6677,172 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="28"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="28"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="28"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="28"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="28"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="28"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="28"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="28"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="28"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="28"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="28"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="28"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="28"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="28"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="28"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="28"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="28"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="28"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="28"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="28"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="28"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="28"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="28"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="28"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="28"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="28"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="28"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="28"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="28"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="28"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="28"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
